--- a/biology/Botanique/Jul.Schäff/Jul.Schäff..xlsx
+++ b/biology/Botanique/Jul.Schäff/Jul.Schäff..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jul.Sch%C3%A4ff.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Schäffer (né le 3 juin 1882 à Markgröningen, mort le 21 octobre 1944 à Weilheim in Oberbayern) est un mycologue allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jul.Sch%C3%A4ff.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Schäffer est le fils d'un couple d'aubergistes qui sont aussi agriculteurs (viticulture, houblon, terres agricoles). Excellent élève, il intègre deux années le séminaire évangélique de Schönthal et Urach. Après l'abitur en 1900, il étudie la théologie au séminaire de Tübingen. Mal à l'aise à devenir pasteur, il préfère se consacrer à une carrière de professeur, impressionné par le mouvement de l'Éducation nouvelle qui émerge. De 1906 à 1908, il est professeur et éducateur à l'École rurale résidentielle à Ilsenburg, où il enseigne la religion, l'allemand, la géographie et l'histoire naturelle. Il est ensuite tuteur à Dresde. Au cours de ces années, il voyage avec la famille pour laquelle il enseigne. Il étudie ensuite un semestre à Trieste. Après le concours, il devient professeur à Potsdam.
 Julius Schäffer est professeur de chimie, de biologie et de mathématiques. En tant que représentant de l'Éducation nouvelle, il fait de longs voyages avec ses élèves mais devient impopulaire auprès de ses collègues conservateurs. Après son professorat, Schäffer se consacre à la mycologie, écrit et peint, aidé par son épouse. Grâce à sa passion, il est en correspondance avec d'autres mycologues comme Hans Haas (de), Adalbert Ricken et Albert Pilát. Schäffer travaille essentiellement sur le classement des basidiomycètes, en particulier les russules et les agarics.
